--- a/1712878/FILE/Sach.xlsx
+++ b/1712878/FILE/Sach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Tho Tuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\OOP_LT_LIRBRARY\1712878\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFAD055-6415-49EA-9C80-3F8E9BC10024}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4028920E-A395-40BB-87D0-9EEF9C5D62F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{AFC3919C-8636-4FDE-954A-6DF46CC9423D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>MA SACH</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Ki Thuat Lap Trinh</t>
   </si>
   <si>
-    <t>Phuong Phap Lap Trinh Huong Doi Tuong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhap Mon Cong Nghe Thong Tin </t>
-  </si>
-  <si>
     <t>KHTN001</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Ki Thuat Lap Trinh C</t>
   </si>
   <si>
-    <t>English knowhow. Student book opener</t>
-  </si>
-  <si>
     <t>The mind map book</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>ISBN0838467857 </t>
   </si>
   <si>
-    <t>Go for it!. B.4, Student book</t>
-  </si>
-  <si>
     <t>Khoa hoc ki thuat</t>
   </si>
   <si>
@@ -145,6 +133,27 @@
   </si>
   <si>
     <t>Tran Thanh Phuong</t>
+  </si>
+  <si>
+    <t>English knowhow</t>
+  </si>
+  <si>
+    <t>Go for it</t>
+  </si>
+  <si>
+    <t>Nhap Mon CNTT</t>
+  </si>
+  <si>
+    <t>PP Lap Trinh HDT</t>
+  </si>
+  <si>
+    <t>ISBN3455467857 </t>
+  </si>
+  <si>
+    <t>ISBN4535443254</t>
+  </si>
+  <si>
+    <t>ISBN0435455347 </t>
   </si>
 </sst>
 </file>
@@ -499,13 +508,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -530,16 +542,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>35000</v>
@@ -547,16 +559,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>26000</v>
@@ -564,36 +576,36 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>52300</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>50300</v>
@@ -601,36 +613,36 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>90900</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>97400</v>
@@ -638,36 +650,36 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
       </c>
       <c r="E8">
         <v>51700</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>45000</v>
@@ -675,36 +687,36 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>24900</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>64000</v>
